--- a/biology/Botanique/Sterculia_pruriens/Sterculia_pruriens.xlsx
+++ b/biology/Botanique/Sterculia_pruriens/Sterculia_pruriens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sterculia pruriens est une espèce d'arbre de la famille des Malvaceae (anciennement Sterculiaceae).
-En Guyane, on appelle ce grand arbre Mahot-cochon (créole : « cochon » parce que le Pécari à lèvre blanche consomme ses fruits tombés au sol[4]), 
-Ɨwisī (Wayãpi), Vit itaibi purubumna, Pakih amahwa (Palikur), Kobe (Paramaka), Tacacazeiro, Xixé (Portugais)[5],[4], Toutou (Galibi)[6].
-Au Guyana, on le connaît sous les noms de Karabipo, Saraurai (Akawaio), Maho (Arawak), Kara (Macushi (ca)), Ranai (Wapishana)[7], Small leaf maho, Smooth leaf maho, Bushcow maho, Real maho (Créole du Guyana), Omose, Maipyuri omoserï (Caribe)[8].
-Au Brésil, on le nomme Axixá, Castanha-de-periquito, Capoti, Embira, Envira-quiabo, Ibira, Tacacazeiro, Xixá, Xixá-brava[9].
+En Guyane, on appelle ce grand arbre Mahot-cochon (créole : « cochon » parce que le Pécari à lèvre blanche consomme ses fruits tombés au sol), 
+Ɨwisī (Wayãpi), Vit itaibi purubumna, Pakih amahwa (Palikur), Kobe (Paramaka), Tacacazeiro, Xixé (Portugais) Toutou (Galibi).
+Au Guyana, on le connaît sous les noms de Karabipo, Saraurai (Akawaio), Maho (Arawak), Kara (Macushi (ca)), Ranai (Wapishana), Small leaf maho, Smooth leaf maho, Bushcow maho, Real maho (Créole du Guyana), Omose, Maipyuri omoserï (Caribe).
+Au Brésil, on le nomme Axixá, Castanha-de-periquito, Capoti, Embira, Envira-quiabo, Ibira, Tacacazeiro, Xixá, Xixá-brava.
 </t>
         </is>
       </c>
@@ -515,13 +527,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sterculia pruriens est un grands arbre haut de 25-30(-35) m, pour un tronc d'environ à 30 cm de diamètre, avec des contreforts peu développés, bas, étalés et épais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sterculia pruriens est un grands arbre haut de 25-30(-35) m, pour un tronc d'environ à 30 cm de diamètre, avec des contreforts peu développés, bas, étalés et épais.
 Les petits rameaux, branches et jeunes feuilles sont tomenteux-ferrugineux (couvertes de poils bruns et étoilés).
 L'écorce externe, portant des lenticelles éparses, est de couleur gris-blancheâtre à brun clair, s'exfoliant en plusieurs plaques irrégulières facilement détachables. 
 L'écorce interne (liber) est fibreuse, de couleur rose chair à rouge foncé ou brun orangé, 
-Son bois est blanc[10].
+Son bois est blanc.
 Le bourgeon végétatif terminal est long de 3 à 5 mm, de forme ovoïde, hétérotriches, à épaisse couche de poils courts, entrecoupés de poils plus longs, non luisants. 
 Les stipules sont de forme étroitement elliptique, longs d'environ 5 mm, densément poilu, et caduques.
 Le pétiole est long d'environ 5 à 16 cm, finement pubescent, pulviné à l'apex.
@@ -538,11 +552,9 @@
 Les fleurs femelles portent sur le gynophore 5 carpelles libres devenant ligneux par la suite.
 Les fruits sont des follicules, à déhiscence ventrale, à bec acuminé, oblique sur environ 0,3 cm, mesurant (2,6 x 2,1 x 1,7-)4 x 3,3 x 2,5(−7 x 5,5 x 4,5) cm, avec un stipe long de 0,7-2,3 cm, pour (0,3-)0,5(−0,7) cm d'épaisseur, tomenteux velouté, ridés, de couleur vert rougeâtre à vert jaunâtre.
 Le gynophore est long de 2 cm.
-Chaque follicule contient 1(2) graine(s) blanche(s), de 2-3 cm de diamètre, enchâssée(s) dans des poils épineux jaune doré[11], [12], [13],
-[14], [8], [5].
-Taxon infra-spécifique
-Sterculia pruriens compte une variété :
-Sterculia pruriens var. glabrescens E.L.Taylor</t>
+Chaque follicule contient 1(2) graine(s) blanche(s), de 2-3 cm de diamètre, enchâssée(s) dans des poils épineux jaune doré, , ,
+, , .
+</t>
         </is>
       </c>
     </row>
@@ -567,13 +579,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sterculia pruriens est présent au Venezuela (Delta Amacuro, Bolívar, Amazonas, Mérida, Miranda), au Guyana, au Suriname, en Guyane, en Équateur, au Pérou, et au Brésil[13].
-</t>
+          <t>Taxon infra-spécifique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sterculia pruriens compte une variété :
+Sterculia pruriens var. glabrescens E.L.Taylor</t>
         </is>
       </c>
     </row>
@@ -598,19 +616,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sterculia pruriens est un grand arbre commun dans les forêts pluviales, marécageuses et autour des cours d'eau[14], commun dans les forêts anciennes de Guyane[4]. Il pousse au Venezuela dans les forêts sempervirentes de plaine, forêts galeries, 100–300 m[13]
-Il est très commun dans les forêts pluviales, marécageuses, les berges des cours d'eau, les pentes boisées et les forêts de savane des Guyanes[14].
-En Guyane, Sterculia pruriens pousse dans les forêts de terre ferme (non inondées), fleurit en septembre, octobre, novembre, et fructifie en novembre[5].
-Sterculia pruriens fleurit principalement de novembre à février, et fructifie vers mars au Suriname.
-Il est commun dans les forêts mixtes et secondaires du nord-ouest du Guyana[11]. 
-Les graines sont disséminées par les rongeurs et les singes[14].
-L'ouverture liée à une coupe sélective a favorisé sa croissance en diamètre dans une station expérimentale du Pará (Brésil)[15].
-On a étudié les effets de la litière d'une plantation forestière de Sterculia pruriens sur les vers de terre et la microflore du sol[16].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sterculia pruriens est présent au Venezuela (Delta Amacuro, Bolívar, Amazonas, Mérida, Miranda), au Guyana, au Suriname, en Guyane, en Équateur, au Pérou, et au Brésil.
 </t>
         </is>
       </c>
@@ -636,19 +649,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de cet arbre est recommandé pour de nombreux usages : intérieur de contreplaqué, face ou contreface de contreplaqué, panneaux de fibre ou de particules, panneau latté, menuiserie intérieure, emballage-caisserie, excellente pâte à papier, coffrage, lambris, charpente légère, meuble courant ou éléments, placage tranché, parquet, sièges, cercueils[17],[18], charbon de bois et de bois de chauffe[9].
-Ses fruits peuvent être utilisés pour nourrir la faune. On peut aussi l'employer pour faire des haies[9].
-Les fibres de l'écorce sont d'une grande résistance (comme les autres Mahots)[19] et peuvent être utilisées pour fabriquer des cordes[20],[21].
-Au Guyana, presque toutes les communautés amérindiennes tressent puis commercialisent des paniers de charge, à partir des racines aériennes de Sterculia pruriens var. pruriens, avec des sangles de portage de tête faite à partir de lanières d'écorce[8].
-La cendre de son bois mélangée à du tabac est prisée pour soigner les gros rhumes[7], notamment chez les créoles de Guyane. Ses feuilles sont réputées avoir des vertus magiques pour faciliter à la chasse au daguet rouge chez les Palikurs[4].
-En Colombie, les Taiwano utilisent la cendre des feuilles mélangée à de la graisse ou de l'huile comme onguent capillaire lorsque le cuir chevelu présente des plaies ou des boutons infectés (10)
-[7].
-Notons que plusieurs espèces de Sterculia contiennent de la caféine dans les feuilles et les graines[7].
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sterculia pruriens est un grand arbre commun dans les forêts pluviales, marécageuses et autour des cours d'eau, commun dans les forêts anciennes de Guyane. Il pousse au Venezuela dans les forêts sempervirentes de plaine, forêts galeries, 100–300 m
+Il est très commun dans les forêts pluviales, marécageuses, les berges des cours d'eau, les pentes boisées et les forêts de savane des Guyanes.
+En Guyane, Sterculia pruriens pousse dans les forêts de terre ferme (non inondées), fleurit en septembre, octobre, novembre, et fructifie en novembre.
+Sterculia pruriens fleurit principalement de novembre à février, et fructifie vers mars au Suriname.
+Il est commun dans les forêts mixtes et secondaires du nord-ouest du Guyana. 
+Les graines sont disséminées par les rongeurs et les singes.
+L'ouverture liée à une coupe sélective a favorisé sa croissance en diamètre dans une station expérimentale du Pará (Brésil).
+On a étudié les effets de la litière d'une plantation forestière de Sterculia pruriens sur les vers de terre et la microflore du sol.
 </t>
         </is>
       </c>
@@ -674,12 +689,54 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de cet arbre est recommandé pour de nombreux usages : intérieur de contreplaqué, face ou contreface de contreplaqué, panneaux de fibre ou de particules, panneau latté, menuiserie intérieure, emballage-caisserie, excellente pâte à papier, coffrage, lambris, charpente légère, meuble courant ou éléments, placage tranché, parquet, sièges, cercueils charbon de bois et de bois de chauffe.
+Ses fruits peuvent être utilisés pour nourrir la faune. On peut aussi l'employer pour faire des haies.
+Les fibres de l'écorce sont d'une grande résistance (comme les autres Mahots) et peuvent être utilisées pour fabriquer des cordes,.
+Au Guyana, presque toutes les communautés amérindiennes tressent puis commercialisent des paniers de charge, à partir des racines aériennes de Sterculia pruriens var. pruriens, avec des sangles de portage de tête faite à partir de lanières d'écorce.
+La cendre de son bois mélangée à du tabac est prisée pour soigner les gros rhumes, notamment chez les créoles de Guyane. Ses feuilles sont réputées avoir des vertus magiques pour faciliter à la chasse au daguet rouge chez les Palikurs.
+En Colombie, les Taiwano utilisent la cendre des feuilles mélangée à de la graisse ou de l'huile comme onguent capillaire lorsque le cuir chevelu présente des plaies ou des boutons infectés (10)
+.
+Notons que plusieurs espèces de Sterculia contiennent de la caféine dans les feuilles et les graines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sterculia_pruriens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sterculia_pruriens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet rapporte ceci[22] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet rapporte ceci : 
 « IVIRA. (Tabula 279.) 
 CAL. Perianthium monophyllum, concavum, quinquepartitum laciniis oblongis, acutis, patulis, extus luteis, intus rubeſcentibus, apice luteis. 
 COR. 
